--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H2">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N2">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q2">
-        <v>79.161710362728</v>
+        <v>119.6452399951933</v>
       </c>
       <c r="R2">
-        <v>712.455393264552</v>
+        <v>1076.80715995674</v>
       </c>
       <c r="S2">
-        <v>0.0303752510454167</v>
+        <v>0.05202345873102307</v>
       </c>
       <c r="T2">
-        <v>0.0303752510454167</v>
+        <v>0.05202345873102308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H3">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q3">
-        <v>47.46983928960699</v>
+        <v>124.5052917930529</v>
       </c>
       <c r="R3">
-        <v>427.228553606463</v>
+        <v>1120.547626137476</v>
       </c>
       <c r="S3">
-        <v>0.0182147186929187</v>
+        <v>0.05413667864806062</v>
       </c>
       <c r="T3">
-        <v>0.0182147186929187</v>
+        <v>0.05413667864806063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H4">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q4">
-        <v>40.498371224493</v>
+        <v>106.2203201423693</v>
       </c>
       <c r="R4">
-        <v>364.485341020437</v>
+        <v>955.982881281324</v>
       </c>
       <c r="S4">
-        <v>0.0155396868920312</v>
+        <v>0.0461861118883176</v>
       </c>
       <c r="T4">
-        <v>0.0155396868920312</v>
+        <v>0.0461861118883176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N5">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q5">
-        <v>227.5889089279121</v>
+        <v>131.147887952095</v>
       </c>
       <c r="R5">
-        <v>2048.300180351208</v>
+        <v>1180.330991568855</v>
       </c>
       <c r="S5">
-        <v>0.08732845983444935</v>
+        <v>0.05702497430579564</v>
       </c>
       <c r="T5">
-        <v>0.08732845983444935</v>
+        <v>0.05702497430579564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q6">
         <v>136.4751832849697</v>
@@ -818,10 +818,10 @@
         <v>1228.276649564727</v>
       </c>
       <c r="S6">
-        <v>0.05236708422234945</v>
+        <v>0.05934135838349829</v>
       </c>
       <c r="T6">
-        <v>0.05236708422234945</v>
+        <v>0.05934135838349829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q7">
         <v>116.432301400597</v>
@@ -880,10 +880,10 @@
         <v>1047.890712605373</v>
       </c>
       <c r="S7">
-        <v>0.04467640186945651</v>
+        <v>0.05062642715343581</v>
       </c>
       <c r="T7">
-        <v>0.04467640186945651</v>
+        <v>0.0506264271534358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J8">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N8">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q8">
-        <v>927.6503509032881</v>
+        <v>534.557614657405</v>
       </c>
       <c r="R8">
-        <v>8348.853158129592</v>
+        <v>4811.018531916646</v>
       </c>
       <c r="S8">
-        <v>0.355950018789933</v>
+        <v>0.2324332836525789</v>
       </c>
       <c r="T8">
-        <v>0.355950018789933</v>
+        <v>0.2324332836525789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J9">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q9">
         <v>556.2716226386636</v>
@@ -1004,10 +1004,10 @@
         <v>5006.444603747973</v>
       </c>
       <c r="S9">
-        <v>0.2134477654622068</v>
+        <v>0.2418748443711122</v>
       </c>
       <c r="T9">
-        <v>0.2134477654622068</v>
+        <v>0.2418748443711122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J10">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q10">
         <v>474.577015899103</v>
@@ -1066,10 +1066,10 @@
         <v>4271.193143091928</v>
       </c>
       <c r="S10">
-        <v>0.1821006131912382</v>
+        <v>0.2063528628661779</v>
       </c>
       <c r="T10">
-        <v>0.1821006131912382</v>
+        <v>0.2063528628661778</v>
       </c>
     </row>
   </sheetData>
